--- a/python scripts/regression_analysis_results_version2.xlsx
+++ b/python scripts/regression_analysis_results_version2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="22">
   <si>
     <t>Target</t>
   </si>
@@ -79,10 +79,10 @@
     <t>status</t>
   </si>
   <si>
-    <t>gender</t>
+    <t>education</t>
   </si>
   <si>
-    <t>education</t>
+    <t>gender</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,7 +468,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>0.269</v>
+        <v>0.307</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -482,7 +482,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>0.491</v>
+        <v>0.524</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -496,7 +496,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>0.887</v>
+        <v>0.972</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>0.094</v>
+        <v>0.114</v>
       </c>
       <c r="D5">
-        <v>0.0342</v>
+        <v>0.0307</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -524,7 +524,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>0.591</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>0.412</v>
+        <v>0.366</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -552,7 +552,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.416</v>
+        <v>0.4</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -566,7 +566,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.082</v>
+        <v>1.001</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -580,7 +580,7 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>0.483</v>
+        <v>0.4</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -594,10 +594,10 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>-0.171</v>
+        <v>-0.213</v>
       </c>
       <c r="D11">
-        <v>0.0016</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -608,7 +608,7 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>0.603</v>
+        <v>0.553</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>0.332</v>
+        <v>0.354</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>7</v>
       </c>
       <c r="C14">
-        <v>1.031</v>
+        <v>1.027</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -650,7 +650,7 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>0.5580000000000001</v>
+        <v>0.493</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -658,16 +658,16 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C16">
-        <v>0.672</v>
+        <v>-0.139</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.0164</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -675,10 +675,10 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>0.534</v>
+        <v>0.64</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18">
-        <v>0.635</v>
+        <v>0.554</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -703,10 +703,10 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C19">
-        <v>0.544</v>
+        <v>0.641</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -717,27 +717,27 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20">
-        <v>-0.12</v>
+        <v>0.486</v>
       </c>
       <c r="D20">
-        <v>0.0016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C21">
-        <v>0.268</v>
+        <v>-0.154</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -745,13 +745,13 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C22">
-        <v>0.15</v>
+        <v>0.412</v>
       </c>
       <c r="D22">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -759,13 +759,13 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23">
-        <v>0.17</v>
+        <v>0.161</v>
       </c>
       <c r="D23">
-        <v>0.0158</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -773,27 +773,27 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24">
-        <v>0.163</v>
+        <v>0.128</v>
       </c>
       <c r="D24">
-        <v>0.0022</v>
+        <v>0.0188</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C25">
-        <v>0.6830000000000001</v>
+        <v>0.161</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.0037</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -801,10 +801,10 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C26">
-        <v>0.456</v>
+        <v>0.433</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -815,10 +815,10 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C27">
-        <v>0.5</v>
+        <v>0.349</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -826,16 +826,16 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C28">
-        <v>0.144</v>
+        <v>0.337</v>
       </c>
       <c r="D28">
-        <v>0.0342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -843,13 +843,13 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C29">
-        <v>0.306</v>
+        <v>0.124</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>0.0307</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -857,13 +857,13 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30">
-        <v>0.161</v>
+        <v>0.38</v>
       </c>
       <c r="D30">
-        <v>0.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -871,27 +871,27 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31">
-        <v>0.294</v>
+        <v>0.138</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>0.0161</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C32">
-        <v>0.283</v>
+        <v>0.333</v>
       </c>
       <c r="D32">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -899,13 +899,13 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C33">
-        <v>0.338</v>
+        <v>0.211</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -913,10 +913,10 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C34">
-        <v>0.5590000000000001</v>
+        <v>0.436</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C35">
-        <v>0.599</v>
+        <v>0.448</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -938,13 +938,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C36">
-        <v>0.53</v>
+        <v>0.524</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C37">
-        <v>0.282</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -969,10 +969,10 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38">
-        <v>0.407</v>
+        <v>0.335</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -983,10 +983,10 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C39">
-        <v>0.644</v>
+        <v>0.467</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -997,13 +997,13 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40">
-        <v>0.104</v>
+        <v>0.738</v>
       </c>
       <c r="D40">
-        <v>0.0158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1011,27 +1011,27 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C41">
-        <v>0.095</v>
+        <v>0.13</v>
       </c>
       <c r="D41">
-        <v>0.025</v>
+        <v>0.0188</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C42">
-        <v>-0.174</v>
+        <v>0.126</v>
       </c>
       <c r="D42">
-        <v>0.0016</v>
+        <v>0.0161</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1039,13 +1039,13 @@
         <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C43">
-        <v>-0.248</v>
+        <v>-0.17</v>
       </c>
       <c r="D43">
-        <v>0.0016</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1053,13 +1053,13 @@
         <v>13</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C44">
-        <v>0.172</v>
+        <v>-0.125</v>
       </c>
       <c r="D44">
-        <v>0.0022</v>
+        <v>0.0164</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1067,13 +1067,13 @@
         <v>13</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C45">
-        <v>0.208</v>
+        <v>-0.223</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1081,13 +1081,13 @@
         <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C46">
-        <v>0.301</v>
+        <v>0.157</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>0.0037</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1095,10 +1095,10 @@
         <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C47">
-        <v>0.336</v>
+        <v>0.312</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1106,16 +1106,44 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>0.291</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49">
+        <v>0.388</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
         <v>14</v>
       </c>
-      <c r="B48" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48">
-        <v>0.302</v>
-      </c>
-      <c r="D48">
-        <v>0.0037</v>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>0.181</v>
+      </c>
+      <c r="D50">
+        <v>0.0032</v>
       </c>
     </row>
   </sheetData>
@@ -1125,7 +1153,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1156,10 +1184,10 @@
         <v>16</v>
       </c>
       <c r="C2">
-        <v>0.07199999999999999</v>
+        <v>0.092</v>
       </c>
       <c r="D2">
-        <v>0.0945</v>
+        <v>0.0954</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
@@ -1173,10 +1201,10 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>0.078</v>
+        <v>0.101</v>
       </c>
       <c r="D3">
-        <v>0.0605</v>
+        <v>0.0578</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -1184,16 +1212,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>-0.105</v>
+        <v>-0.025</v>
       </c>
       <c r="D4">
-        <v>0.06710000000000001</v>
+        <v>0.6653</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -1201,84 +1229,84 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>-0.064</v>
+        <v>-0.043</v>
       </c>
       <c r="D5">
-        <v>0.2377</v>
+        <v>0.4066</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6">
-        <v>-0.08</v>
+        <v>-0.081</v>
       </c>
       <c r="D6">
-        <v>0.1023</v>
+        <v>0.1235</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7">
-        <v>-0.09</v>
+        <v>-0.052</v>
       </c>
       <c r="D7">
-        <v>0.0755</v>
+        <v>0.3878</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>-0.034</v>
+        <v>-0.065</v>
       </c>
       <c r="D8">
-        <v>0.3299</v>
+        <v>0.2637</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>-0.049</v>
+        <v>-0.099</v>
       </c>
       <c r="D9">
-        <v>0.0857</v>
+        <v>0.0859</v>
       </c>
       <c r="E9" t="s">
         <v>20</v>
@@ -1286,67 +1314,67 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>-0.032</v>
+        <v>-0.108</v>
       </c>
       <c r="D10">
-        <v>0.3025</v>
+        <v>0.0728</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>0.119</v>
+        <v>-0.067</v>
       </c>
       <c r="D11">
-        <v>0.0945</v>
+        <v>0.2354</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>0.137</v>
+        <v>-0.108</v>
       </c>
       <c r="D12">
-        <v>0.0605</v>
+        <v>0.08450000000000001</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.077</v>
+        <v>-0.05</v>
       </c>
       <c r="D13">
-        <v>0.1331</v>
+        <v>0.2803</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
@@ -1354,36 +1382,36 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14">
-        <v>-0.023</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="D14">
-        <v>0.6314</v>
+        <v>0.0712</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15">
-        <v>-0.06900000000000001</v>
+        <v>-0.052</v>
       </c>
       <c r="D15">
-        <v>0.1556</v>
+        <v>0.2228</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1391,13 +1419,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>0.13</v>
+        <v>0.092</v>
       </c>
       <c r="D16">
-        <v>0.0803</v>
+        <v>0.0954</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
@@ -1408,13 +1436,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>0.133</v>
+        <v>0.108</v>
       </c>
       <c r="D17">
-        <v>0.0835</v>
+        <v>0.0578</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
@@ -1425,16 +1453,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C18">
-        <v>0.019</v>
+        <v>0.1</v>
       </c>
       <c r="D18">
-        <v>0.751</v>
+        <v>0.0915</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1442,16 +1470,16 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C19">
-        <v>-0.054</v>
+        <v>0.073</v>
       </c>
       <c r="D19">
-        <v>0.3695</v>
+        <v>0.2039</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1459,47 +1487,47 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C20">
-        <v>-0.103</v>
+        <v>-0.035</v>
       </c>
       <c r="D20">
-        <v>0.08740000000000001</v>
+        <v>0.5142</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21">
-        <v>0.105</v>
+        <v>-0.083</v>
       </c>
       <c r="D21">
-        <v>0.06320000000000001</v>
+        <v>0.1342</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C22">
-        <v>0.067</v>
+        <v>0.096</v>
       </c>
       <c r="D22">
-        <v>0.4357</v>
+        <v>0.0791</v>
       </c>
       <c r="E22" t="s">
         <v>18</v>
@@ -1507,16 +1535,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C23">
-        <v>0.147</v>
+        <v>0.099</v>
       </c>
       <c r="D23">
-        <v>0.0917</v>
+        <v>0.0815</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
@@ -1524,50 +1552,50 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C24">
-        <v>0.113</v>
+        <v>0.019</v>
       </c>
       <c r="D24">
-        <v>0.1973</v>
+        <v>0.7593</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C25">
-        <v>-0.097</v>
+        <v>-0.057</v>
       </c>
       <c r="D25">
-        <v>0.06710000000000001</v>
+        <v>0.3498</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C26">
-        <v>-0.066</v>
+        <v>-0.105</v>
       </c>
       <c r="D26">
-        <v>0.2377</v>
+        <v>0.08119999999999999</v>
       </c>
       <c r="E26" t="s">
         <v>20</v>
@@ -1575,33 +1603,33 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C27">
-        <v>0.1</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="D27">
-        <v>0.06320000000000001</v>
+        <v>0.0915</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
         <v>10</v>
       </c>
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
       <c r="C28">
-        <v>0.028</v>
+        <v>0.05</v>
       </c>
       <c r="D28">
-        <v>0.4357</v>
+        <v>0.3456</v>
       </c>
       <c r="E28" t="s">
         <v>18</v>
@@ -1609,16 +1637,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
         <v>10</v>
       </c>
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
       <c r="C29">
-        <v>0.059</v>
+        <v>0.103</v>
       </c>
       <c r="D29">
-        <v>0.0917</v>
+        <v>0.0566</v>
       </c>
       <c r="E29" t="s">
         <v>19</v>
@@ -1626,33 +1654,33 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
         <v>10</v>
       </c>
-      <c r="B30" t="s">
-        <v>9</v>
-      </c>
       <c r="C30">
-        <v>0.045</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="D30">
-        <v>0.1973</v>
+        <v>0.1237</v>
       </c>
       <c r="E30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
       </c>
       <c r="C31">
-        <v>-0.101</v>
+        <v>-0.091</v>
       </c>
       <c r="D31">
-        <v>0.1023</v>
+        <v>0.0728</v>
       </c>
       <c r="E31" t="s">
         <v>18</v>
@@ -1660,50 +1688,50 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C32">
-        <v>-0.08599999999999999</v>
+        <v>-0.064</v>
       </c>
       <c r="D32">
-        <v>0.3299</v>
+        <v>0.2354</v>
       </c>
       <c r="E32" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C33">
-        <v>-0.185</v>
+        <v>0.054</v>
       </c>
       <c r="D33">
-        <v>0.0857</v>
+        <v>0.3456</v>
       </c>
       <c r="E33" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C34">
-        <v>-0.1</v>
+        <v>0.107</v>
       </c>
       <c r="D34">
-        <v>0.3025</v>
+        <v>0.0566</v>
       </c>
       <c r="E34" t="s">
         <v>19</v>
@@ -1711,19 +1739,19 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C35">
-        <v>0.09</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="D35">
-        <v>0.1331</v>
+        <v>0.1237</v>
       </c>
       <c r="E35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1731,16 +1759,16 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C36">
-        <v>-0.031</v>
+        <v>-0.023</v>
       </c>
       <c r="D36">
-        <v>0.6314</v>
+        <v>0.6653</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1748,98 +1776,98 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C37">
-        <v>-0.089</v>
+        <v>-0.048</v>
       </c>
       <c r="D37">
-        <v>0.1556</v>
+        <v>0.4066</v>
       </c>
       <c r="E37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C38">
-        <v>0.07199999999999999</v>
+        <v>-0.089</v>
       </c>
       <c r="D38">
-        <v>0.0803</v>
+        <v>0.1235</v>
       </c>
       <c r="E38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C39">
-        <v>0.06900000000000001</v>
+        <v>-0.08400000000000001</v>
       </c>
       <c r="D39">
-        <v>0.0835</v>
+        <v>0.08450000000000001</v>
       </c>
       <c r="E39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C40">
-        <v>-0.106</v>
+        <v>-0.07099999999999999</v>
       </c>
       <c r="D40">
-        <v>0.0755</v>
+        <v>0.2803</v>
       </c>
       <c r="E40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C41">
-        <v>0.016</v>
+        <v>-0.141</v>
       </c>
       <c r="D41">
-        <v>0.751</v>
+        <v>0.0712</v>
       </c>
       <c r="E41" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C42">
-        <v>-0.045</v>
+        <v>-0.08699999999999999</v>
       </c>
       <c r="D42">
-        <v>0.3695</v>
+        <v>0.2228</v>
       </c>
       <c r="E42" t="s">
         <v>19</v>
@@ -1847,118 +1875,118 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
       </c>
       <c r="C43">
-        <v>-0.08599999999999999</v>
+        <v>0.068</v>
       </c>
       <c r="D43">
-        <v>0.08740000000000001</v>
+        <v>0.2039</v>
       </c>
       <c r="E43" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C44">
-        <v>0.146</v>
+        <v>-0.037</v>
       </c>
       <c r="D44">
-        <v>0.062</v>
+        <v>0.5142</v>
       </c>
       <c r="E44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C45">
-        <v>0.121</v>
+        <v>-0.083</v>
       </c>
       <c r="D45">
-        <v>0.1152</v>
+        <v>0.1342</v>
       </c>
       <c r="E45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C46">
-        <v>-0.111</v>
+        <v>0.097</v>
       </c>
       <c r="D46">
-        <v>0.0956</v>
+        <v>0.0791</v>
       </c>
       <c r="E46" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C47">
-        <v>-0.057</v>
+        <v>0.093</v>
       </c>
       <c r="D47">
-        <v>0.1766</v>
+        <v>0.0815</v>
       </c>
       <c r="E47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C48">
-        <v>-0.078</v>
+        <v>-0.043</v>
       </c>
       <c r="D48">
-        <v>0.0541</v>
+        <v>0.3878</v>
       </c>
       <c r="E48" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C49">
-        <v>-0.05</v>
+        <v>-0.058</v>
       </c>
       <c r="D49">
-        <v>0.2125</v>
+        <v>0.2637</v>
       </c>
       <c r="E49" t="s">
         <v>19</v>
@@ -1966,33 +1994,33 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C50">
-        <v>-0.081</v>
+        <v>-0.091</v>
       </c>
       <c r="D50">
-        <v>0.0516</v>
+        <v>0.0859</v>
       </c>
       <c r="E50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C51">
-        <v>-0.058</v>
+        <v>0.015</v>
       </c>
       <c r="D51">
-        <v>0.3015</v>
+        <v>0.7593</v>
       </c>
       <c r="E51" t="s">
         <v>18</v>
@@ -2000,16 +2028,16 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C52">
-        <v>-0.022</v>
+        <v>-0.047</v>
       </c>
       <c r="D52">
-        <v>0.6567</v>
+        <v>0.3498</v>
       </c>
       <c r="E52" t="s">
         <v>19</v>
@@ -2017,33 +2045,33 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B53" t="s">
         <v>16</v>
       </c>
       <c r="C53">
-        <v>0.073</v>
+        <v>-0.08799999999999999</v>
       </c>
       <c r="D53">
-        <v>0.3623</v>
+        <v>0.08119999999999999</v>
       </c>
       <c r="E53" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C54">
-        <v>0.08799999999999999</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="D54">
-        <v>0.2555</v>
+        <v>0.0929</v>
       </c>
       <c r="E54" t="s">
         <v>19</v>
@@ -2051,87 +2079,87 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C55">
-        <v>0.131</v>
+        <v>-0.073</v>
       </c>
       <c r="D55">
-        <v>0.0871</v>
+        <v>0.1054</v>
       </c>
       <c r="E55" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B56" t="s">
         <v>9</v>
       </c>
       <c r="C56">
-        <v>-0.07000000000000001</v>
+        <v>-0.063</v>
       </c>
       <c r="D56">
-        <v>0.2118</v>
+        <v>0.1439</v>
       </c>
       <c r="E56" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C57">
-        <v>-0.08699999999999999</v>
+        <v>-0.04</v>
       </c>
       <c r="D57">
-        <v>0.1046</v>
+        <v>0.3796</v>
       </c>
       <c r="E57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B58" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C58">
-        <v>-0.08699999999999999</v>
+        <v>-0.012</v>
       </c>
       <c r="D58">
-        <v>0.1105</v>
+        <v>0.7669</v>
       </c>
       <c r="E58" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B59" t="s">
         <v>11</v>
       </c>
       <c r="C59">
-        <v>-0.019</v>
+        <v>-0.076</v>
       </c>
       <c r="D59">
-        <v>0.7972</v>
+        <v>0.06859999999999999</v>
       </c>
       <c r="E59" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2139,16 +2167,16 @@
         <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C60">
-        <v>-0.044</v>
+        <v>0.05</v>
       </c>
       <c r="D60">
-        <v>0.5125999999999999</v>
+        <v>0.4149</v>
       </c>
       <c r="E60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2156,16 +2184,135 @@
         <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C61">
-        <v>-0.065</v>
+        <v>0.063</v>
       </c>
       <c r="D61">
-        <v>0.3316</v>
+        <v>0.2857</v>
       </c>
       <c r="E61" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62">
+        <v>0.092</v>
+      </c>
+      <c r="D62">
+        <v>0.1104</v>
+      </c>
+      <c r="E62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63">
+        <v>-0.09</v>
+      </c>
+      <c r="D63">
+        <v>0.1536</v>
+      </c>
+      <c r="E63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64">
+        <v>-0.107</v>
+      </c>
+      <c r="D64">
+        <v>0.0761</v>
+      </c>
+      <c r="E64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65">
+        <v>-0.108</v>
+      </c>
+      <c r="D65">
+        <v>0.0775</v>
+      </c>
+      <c r="E65" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66">
+        <v>-0.008999999999999999</v>
+      </c>
+      <c r="D66">
+        <v>0.8915999999999999</v>
+      </c>
+      <c r="E66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67">
+        <v>-0.031</v>
+      </c>
+      <c r="D67">
+        <v>0.592</v>
+      </c>
+      <c r="E67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68">
+        <v>-0.048</v>
+      </c>
+      <c r="D68">
+        <v>0.412</v>
+      </c>
+      <c r="E68" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2175,7 +2322,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2203,10 +2350,10 @@
         <v>18</v>
       </c>
       <c r="C2">
-        <v>0.07000000000000001</v>
+        <v>0.112</v>
       </c>
       <c r="D2">
-        <v>0.0055</v>
+        <v>0.0027</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2217,10 +2364,10 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>0.048</v>
+        <v>0.114</v>
       </c>
       <c r="D3">
-        <v>0.0048</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2231,10 +2378,10 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>0.074</v>
+        <v>0.093</v>
       </c>
       <c r="D4">
-        <v>0.019</v>
+        <v>0.0223</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2242,10 +2389,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>-0.238</v>
+        <v>-0.228</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2256,27 +2403,27 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6">
-        <v>-0.132</v>
+        <v>-0.134</v>
       </c>
       <c r="D6">
-        <v>0.0005</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7">
-        <v>0.038</v>
+        <v>0.067</v>
       </c>
       <c r="D7">
-        <v>0.0434</v>
+        <v>0.0258</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2284,13 +2431,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>0.05</v>
+        <v>-0.11</v>
       </c>
       <c r="D8">
-        <v>0.0249</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2298,27 +2445,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>-0.114</v>
+        <v>0.076</v>
       </c>
       <c r="D9">
-        <v>0.0001</v>
+        <v>0.0122</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>0.041</v>
+        <v>0.248</v>
       </c>
       <c r="D10">
-        <v>0.0061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2326,10 +2473,10 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11">
-        <v>0.21</v>
+        <v>0.179</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2340,27 +2487,27 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>0.103</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.008399999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
       </c>
       <c r="C13">
-        <v>0.115</v>
+        <v>-0.171</v>
       </c>
       <c r="D13">
-        <v>0.0155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2371,24 +2518,24 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>-0.2</v>
+        <v>0.119</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C15">
-        <v>0.106</v>
+        <v>-0.224</v>
       </c>
       <c r="D15">
-        <v>0.0135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2396,13 +2543,13 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C16">
-        <v>-0.289</v>
+        <v>-0.08599999999999999</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.0232</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2413,10 +2560,10 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>-0.12</v>
+        <v>-0.142</v>
       </c>
       <c r="D17">
-        <v>0.0003</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2424,10 +2571,10 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18">
-        <v>-0.296</v>
+        <v>-0.165</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2441,7 +2588,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>-0.167</v>
+        <v>-0.223</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2452,10 +2599,10 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20">
-        <v>0.181</v>
+        <v>0.165</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2469,7 +2616,7 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>-0.08599999999999999</v>
+        <v>-0.168</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2480,10 +2627,10 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22">
-        <v>-0.224</v>
+        <v>-0.206</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2497,7 +2644,7 @@
         <v>18</v>
       </c>
       <c r="C23">
-        <v>-0.433</v>
+        <v>-0.417</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2511,7 +2658,7 @@
         <v>19</v>
       </c>
       <c r="C24">
-        <v>-0.214</v>
+        <v>-0.307</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2522,10 +2669,10 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25">
-        <v>-0.434</v>
+        <v>-0.299</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2533,16 +2680,16 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26">
-        <v>-0.228</v>
+        <v>0.075</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>0.0455</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2550,10 +2697,10 @@
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27">
-        <v>-0.114</v>
+        <v>-0.262</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2564,27 +2711,27 @@
         <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C28">
-        <v>-0.157</v>
+        <v>-0.196</v>
       </c>
       <c r="D28">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C29">
-        <v>0.093</v>
+        <v>-0.13</v>
       </c>
       <c r="D29">
-        <v>0.0101</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2592,13 +2739,13 @@
         <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C30">
-        <v>0.095</v>
+        <v>0.073</v>
       </c>
       <c r="D30">
-        <v>0.05</v>
+        <v>0.0141</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2606,27 +2753,27 @@
         <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C31">
-        <v>0.112</v>
+        <v>0.063</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>0.0336</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C32">
-        <v>0.191</v>
+        <v>0.133</v>
       </c>
       <c r="D32">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2634,13 +2781,13 @@
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C33">
-        <v>0.211</v>
+        <v>0.163</v>
       </c>
       <c r="D33">
-        <v>0.0011</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2648,13 +2795,13 @@
         <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C34">
-        <v>0.146</v>
+        <v>0.133</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2662,12 +2809,26 @@
         <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C35">
-        <v>0.259</v>
+        <v>0.182</v>
       </c>
       <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36">
+        <v>0.158</v>
+      </c>
+      <c r="D36">
         <v>0.0001</v>
       </c>
     </row>
@@ -2678,7 +2839,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2706,7 +2867,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>0.269</v>
+        <v>0.307</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2720,7 +2881,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>0.491</v>
+        <v>0.524</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -2734,7 +2895,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>0.887</v>
+        <v>0.972</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2748,10 +2909,10 @@
         <v>16</v>
       </c>
       <c r="C5">
-        <v>0.101</v>
+        <v>0.135</v>
       </c>
       <c r="D5">
-        <v>0.0126</v>
+        <v>0.0097</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2762,10 +2923,10 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>0.094</v>
+        <v>0.114</v>
       </c>
       <c r="D6">
-        <v>0.0342</v>
+        <v>0.0307</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2773,24 +2934,24 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>0.591</v>
+        <v>-0.096</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.0477</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>0.412</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2798,16 +2959,16 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>0.416</v>
+        <v>-0.111</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.0492</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2815,10 +2976,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>1.082</v>
+        <v>0.366</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2829,13 +2990,13 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>-0.134</v>
+        <v>0.4</v>
       </c>
       <c r="D11">
-        <v>0.0152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2843,13 +3004,13 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>-0.109</v>
+        <v>1.001</v>
       </c>
       <c r="D12">
-        <v>0.0077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2857,13 +3018,13 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>0.483</v>
+        <v>-0.138</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.0158</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2871,24 +3032,24 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14">
-        <v>-0.171</v>
+        <v>-0.142</v>
       </c>
       <c r="D14">
-        <v>0.0016</v>
+        <v>0.0073</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C15">
-        <v>0.603</v>
+        <v>0.4</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2896,16 +3057,16 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C16">
-        <v>0.332</v>
+        <v>-0.213</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2913,10 +3074,10 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>1.031</v>
+        <v>0.553</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2927,10 +3088,10 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C18">
-        <v>0.5580000000000001</v>
+        <v>0.354</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2941,24 +3102,24 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C19">
-        <v>-0.112</v>
+        <v>1.027</v>
       </c>
       <c r="D19">
-        <v>0.0223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C20">
-        <v>0.672</v>
+        <v>0.493</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2966,16 +3127,16 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C21">
-        <v>0.534</v>
+        <v>-0.139</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.0164</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2983,10 +3144,10 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C22">
-        <v>0.635</v>
+        <v>0.64</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2997,13 +3158,13 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C23">
-        <v>-0.059</v>
+        <v>0.554</v>
       </c>
       <c r="D23">
-        <v>0.0391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3011,10 +3172,10 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C24">
-        <v>0.544</v>
+        <v>0.641</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3025,41 +3186,41 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C25">
-        <v>-0.12</v>
+        <v>-0.083</v>
       </c>
       <c r="D25">
-        <v>0.0016</v>
+        <v>0.0348</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C26">
-        <v>0.185</v>
+        <v>0.486</v>
       </c>
       <c r="D26">
-        <v>0.0126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C27">
-        <v>-0.101</v>
+        <v>-0.154</v>
       </c>
       <c r="D27">
-        <v>0.0231</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3067,13 +3228,13 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C28">
-        <v>0.169</v>
+        <v>0.15</v>
       </c>
       <c r="D28">
-        <v>0.0314</v>
+        <v>0.0097</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3081,55 +3242,55 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C29">
-        <v>-0.127</v>
+        <v>0.124</v>
       </c>
       <c r="D29">
-        <v>0.0324</v>
+        <v>0.0345</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C30">
-        <v>0.268</v>
+        <v>-0.123</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>0.0164</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C31">
-        <v>0.111</v>
+        <v>0.127</v>
       </c>
       <c r="D31">
-        <v>0.0402</v>
+        <v>0.0292</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C32">
-        <v>0.15</v>
+        <v>-0.132</v>
       </c>
       <c r="D32">
-        <v>0.0002</v>
+        <v>0.0266</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3137,13 +3298,13 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C33">
-        <v>0.17</v>
+        <v>0.109</v>
       </c>
       <c r="D33">
-        <v>0.0158</v>
+        <v>0.0345</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3151,55 +3312,55 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C34">
-        <v>0.163</v>
+        <v>0.412</v>
       </c>
       <c r="D34">
-        <v>0.0022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C35">
-        <v>0.6830000000000001</v>
+        <v>0.161</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C36">
-        <v>0.21</v>
+        <v>0.128</v>
       </c>
       <c r="D36">
-        <v>0.0151</v>
+        <v>0.0188</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C37">
-        <v>0.456</v>
+        <v>0.161</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>0.0037</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3207,10 +3368,10 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C38">
-        <v>0.5</v>
+        <v>0.433</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -3218,44 +3379,44 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
         <v>10</v>
       </c>
-      <c r="B39" t="s">
-        <v>4</v>
-      </c>
       <c r="C39">
-        <v>0.144</v>
+        <v>0.145</v>
       </c>
       <c r="D39">
-        <v>0.0342</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C40">
-        <v>-0.133</v>
+        <v>0.349</v>
       </c>
       <c r="D40">
-        <v>0.0152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C41">
-        <v>0.115</v>
+        <v>0.337</v>
       </c>
       <c r="D41">
-        <v>0.0402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3263,13 +3424,13 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C42">
-        <v>0.08500000000000001</v>
+        <v>0.124</v>
       </c>
       <c r="D42">
-        <v>0.0151</v>
+        <v>0.0307</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3277,13 +3438,13 @@
         <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C43">
-        <v>0.306</v>
+        <v>-0.127</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>0.0158</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3291,13 +3452,13 @@
         <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C44">
-        <v>0.161</v>
+        <v>0.153</v>
       </c>
       <c r="D44">
-        <v>0.025</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3305,10 +3466,10 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C45">
-        <v>0.294</v>
+        <v>0.38</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -3316,30 +3477,30 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C46">
-        <v>-0.197</v>
+        <v>0.138</v>
       </c>
       <c r="D46">
-        <v>0.0077</v>
+        <v>0.0161</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C47">
-        <v>-0.217</v>
+        <v>0.333</v>
       </c>
       <c r="D47">
-        <v>0.0391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3347,13 +3508,13 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C48">
-        <v>-0.154</v>
+        <v>-0.123</v>
       </c>
       <c r="D48">
-        <v>0.0231</v>
+        <v>0.0477</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3361,13 +3522,13 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C49">
-        <v>0.283</v>
+        <v>-0.153</v>
       </c>
       <c r="D49">
-        <v>0.0002</v>
+        <v>0.0073</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3375,13 +3536,13 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C50">
-        <v>0.338</v>
+        <v>-0.162</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>0.0348</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3389,13 +3550,13 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C51">
-        <v>0.5590000000000001</v>
+        <v>-0.142</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>0.0164</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3403,24 +3564,24 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C52">
-        <v>0.599</v>
+        <v>0.211</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C53">
-        <v>0.53</v>
+        <v>0.436</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -3428,13 +3589,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C54">
-        <v>0.282</v>
+        <v>0.448</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -3442,13 +3603,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C55">
-        <v>0.407</v>
+        <v>0.524</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -3459,10 +3620,10 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C56">
-        <v>0.644</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -3473,13 +3634,13 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C57">
-        <v>0.083</v>
+        <v>0.335</v>
       </c>
       <c r="D57">
-        <v>0.0314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3487,13 +3648,13 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C58">
-        <v>0.104</v>
+        <v>0.467</v>
       </c>
       <c r="D58">
-        <v>0.0158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3501,55 +3662,55 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C59">
-        <v>0.095</v>
+        <v>0.738</v>
       </c>
       <c r="D59">
-        <v>0.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C60">
-        <v>-0.174</v>
+        <v>0.114</v>
       </c>
       <c r="D60">
-        <v>0.0016</v>
+        <v>0.0292</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C61">
-        <v>-0.141</v>
+        <v>0.13</v>
       </c>
       <c r="D61">
-        <v>0.0223</v>
+        <v>0.0188</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C62">
-        <v>-0.248</v>
+        <v>0.126</v>
       </c>
       <c r="D62">
-        <v>0.0016</v>
+        <v>0.0161</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3557,13 +3718,13 @@
         <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C63">
-        <v>-0.109</v>
+        <v>-0.106</v>
       </c>
       <c r="D63">
-        <v>0.0324</v>
+        <v>0.0492</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3571,13 +3732,13 @@
         <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C64">
-        <v>0.172</v>
+        <v>-0.17</v>
       </c>
       <c r="D64">
-        <v>0.0022</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3585,13 +3746,13 @@
         <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C65">
-        <v>0.208</v>
+        <v>-0.125</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.0164</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3599,13 +3760,13 @@
         <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C66">
-        <v>0.301</v>
+        <v>-0.223</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3613,111 +3774,111 @@
         <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C67">
-        <v>0.336</v>
+        <v>-0.113</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>0.0266</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C68">
-        <v>0.173</v>
+        <v>0.157</v>
       </c>
       <c r="D68">
-        <v>0.0263</v>
+        <v>0.0037</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69">
-        <v>-0.137</v>
+        <v>0.312</v>
       </c>
       <c r="D69">
-        <v>0.0337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C70">
-        <v>-0.08500000000000001</v>
+        <v>0.291</v>
       </c>
       <c r="D70">
-        <v>0.0356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B71" t="s">
         <v>11</v>
       </c>
       <c r="C71">
-        <v>-0.107</v>
+        <v>0.388</v>
       </c>
       <c r="D71">
-        <v>0.0217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B72" t="s">
         <v>4</v>
       </c>
       <c r="C72">
-        <v>0.302</v>
+        <v>0.104</v>
       </c>
       <c r="D72">
-        <v>0.0037</v>
+        <v>0.0177</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C73">
-        <v>0.168</v>
+        <v>-0.1</v>
       </c>
       <c r="D73">
-        <v>0.0296</v>
+        <v>0.0203</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C74">
-        <v>-0.132</v>
+        <v>-0.08</v>
       </c>
       <c r="D74">
-        <v>0.0146</v>
+        <v>0.0392</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3725,13 +3886,55 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C75">
-        <v>-0.153</v>
+        <v>0.181</v>
       </c>
       <c r="D75">
-        <v>0.0147</v>
+        <v>0.0032</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76">
+        <v>0.123</v>
+      </c>
+      <c r="D76">
+        <v>0.0359</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77">
+        <v>-0.157</v>
+      </c>
+      <c r="D77">
+        <v>0.0095</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78">
+        <v>-0.121</v>
+      </c>
+      <c r="D78">
+        <v>0.0261</v>
       </c>
     </row>
   </sheetData>
